--- a/realme/April/All Details/20.04.2021/realme Bank Statement April-2021.xlsx
+++ b/realme/April/All Details/20.04.2021/realme Bank Statement April-2021.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -2371,6 +2371,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2398,12 +2416,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2414,18 +2426,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2594,7 +2594,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2606,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2629,14 +2629,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2724,7 +2724,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2736,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2759,14 +2759,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3524,12 +3524,12 @@
       <c r="C26" s="23">
         <v>400000</v>
       </c>
-      <c r="D26" s="23">
-        <v>0</v>
+      <c r="D26" s="199">
+        <v>1375600</v>
       </c>
       <c r="E26" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="1"/>
@@ -3542,7 +3542,7 @@
       <c r="D27" s="23"/>
       <c r="E27" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="1"/>
@@ -3555,7 +3555,7 @@
       <c r="D28" s="23"/>
       <c r="E28" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="1"/>
@@ -3568,7 +3568,7 @@
       <c r="D29" s="23"/>
       <c r="E29" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="1"/>
@@ -3581,7 +3581,7 @@
       <c r="D30" s="23"/>
       <c r="E30" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="1"/>
@@ -3594,7 +3594,7 @@
       <c r="D31" s="23"/>
       <c r="E31" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="1"/>
@@ -3607,7 +3607,7 @@
       <c r="D32" s="23"/>
       <c r="E32" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="1"/>
@@ -3620,7 +3620,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="1"/>
@@ -3633,7 +3633,7 @@
       <c r="D34" s="23"/>
       <c r="E34" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="1"/>
@@ -3646,7 +3646,7 @@
       <c r="D35" s="23"/>
       <c r="E35" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="1"/>
@@ -3659,7 +3659,7 @@
       <c r="D36" s="23"/>
       <c r="E36" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="1"/>
@@ -3672,7 +3672,7 @@
       <c r="D37" s="23"/>
       <c r="E37" s="25">
         <f t="shared" si="0"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="1"/>
@@ -3685,7 +3685,7 @@
       <c r="D38" s="23"/>
       <c r="E38" s="25">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="1"/>
@@ -3698,7 +3698,7 @@
       <c r="D39" s="23"/>
       <c r="E39" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="1"/>
@@ -3711,7 +3711,7 @@
       <c r="D40" s="23"/>
       <c r="E40" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="1"/>
@@ -3724,7 +3724,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="1"/>
@@ -3737,7 +3737,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="1"/>
@@ -3750,7 +3750,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="1"/>
@@ -3763,7 +3763,7 @@
       <c r="D44" s="23"/>
       <c r="E44" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="1"/>
@@ -3776,7 +3776,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="1"/>
@@ -3789,7 +3789,7 @@
       <c r="D46" s="23"/>
       <c r="E46" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="1"/>
@@ -3802,7 +3802,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="D48" s="23"/>
       <c r="E48" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="1"/>
@@ -3827,7 +3827,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F49" s="15"/>
       <c r="G49" s="1"/>
@@ -3839,7 +3839,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="1"/>
@@ -3851,7 +3851,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="1"/>
@@ -3863,7 +3863,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="1"/>
@@ -3875,7 +3875,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="1"/>
@@ -3887,7 +3887,7 @@
       <c r="D54" s="23"/>
       <c r="E54" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="1"/>
@@ -3899,7 +3899,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="1"/>
@@ -3910,7 +3910,7 @@
       <c r="D56" s="23"/>
       <c r="E56" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="1"/>
@@ -3921,7 +3921,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="1"/>
@@ -3932,7 +3932,7 @@
       <c r="D58" s="23"/>
       <c r="E58" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="1"/>
@@ -3943,7 +3943,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="1"/>
@@ -3954,7 +3954,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="1"/>
@@ -3965,7 +3965,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="1"/>
@@ -3976,7 +3976,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="1"/>
@@ -3987,7 +3987,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="1"/>
@@ -3998,7 +3998,7 @@
       <c r="D64" s="23"/>
       <c r="E64" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="1"/>
@@ -4009,7 +4009,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="1"/>
@@ -4020,7 +4020,7 @@
       <c r="D66" s="23"/>
       <c r="E66" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="1"/>
@@ -4031,7 +4031,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="1"/>
@@ -4042,7 +4042,7 @@
       <c r="D68" s="23"/>
       <c r="E68" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="1"/>
@@ -4053,7 +4053,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="25">
         <f t="shared" si="1"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="1"/>
@@ -4064,7 +4064,7 @@
       <c r="D70" s="23"/>
       <c r="E70" s="25">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="1"/>
@@ -4075,7 +4075,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="1"/>
@@ -4086,7 +4086,7 @@
       <c r="D72" s="23"/>
       <c r="E72" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="1"/>
@@ -4097,7 +4097,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="1"/>
@@ -4108,7 +4108,7 @@
       <c r="D74" s="23"/>
       <c r="E74" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="1"/>
@@ -4119,7 +4119,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="1"/>
@@ -4130,7 +4130,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="1"/>
@@ -4141,7 +4141,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="1"/>
@@ -4152,7 +4152,7 @@
       <c r="D78" s="23"/>
       <c r="E78" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="1"/>
@@ -4163,7 +4163,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="1"/>
@@ -4174,7 +4174,7 @@
       <c r="D80" s="23"/>
       <c r="E80" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="1"/>
@@ -4185,7 +4185,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="1"/>
@@ -4196,7 +4196,7 @@
       <c r="D82" s="23"/>
       <c r="E82" s="25">
         <f t="shared" si="2"/>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="1"/>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="D83" s="25">
         <f>SUM(D5:D77)</f>
-        <v>5530400</v>
+        <v>6906000</v>
       </c>
       <c r="E83" s="39">
         <f>E71</f>
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="1"/>
@@ -4239,10 +4239,10 @@
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="13" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4254,73 +4254,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="254" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="248"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="254"/>
     </row>
     <row r="2" spans="1:26" s="148" customFormat="1" ht="18">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
+      <c r="Q2" s="255"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="255"/>
     </row>
     <row r="3" spans="1:26" s="149" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="256" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="251"/>
-      <c r="L3" s="251"/>
-      <c r="M3" s="251"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="252"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
+      <c r="L3" s="257"/>
+      <c r="M3" s="257"/>
+      <c r="N3" s="257"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="258"/>
       <c r="U3" s="63"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4329,58 +4329,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="151" customFormat="1">
-      <c r="A4" s="253" t="s">
+      <c r="A4" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="261" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="257" t="s">
+      <c r="D4" s="248" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="257" t="s">
+      <c r="E4" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="257" t="s">
+      <c r="G4" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="257" t="s">
+      <c r="H4" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="257" t="s">
+      <c r="I4" s="248" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="257" t="s">
+      <c r="J4" s="248" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="257" t="s">
+      <c r="K4" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="257" t="s">
+      <c r="L4" s="248" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="257" t="s">
+      <c r="M4" s="248" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="257" t="s">
+      <c r="N4" s="248" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="263" t="s">
+      <c r="O4" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="265" t="s">
+      <c r="P4" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="261" t="s">
+      <c r="Q4" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="259" t="s">
+      <c r="R4" s="263" t="s">
         <v>48</v>
       </c>
       <c r="S4" s="150" t="s">
@@ -4393,24 +4393,24 @@
       <c r="Y4" s="153"/>
     </row>
     <row r="5" spans="1:26" s="151" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="254"/>
-      <c r="B5" s="256"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="264"/>
-      <c r="P5" s="266"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="260"/>
+      <c r="A5" s="260"/>
+      <c r="B5" s="262"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+      <c r="H5" s="249"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
+      <c r="N5" s="249"/>
+      <c r="O5" s="251"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="264"/>
       <c r="S5" s="155" t="s">
         <v>49</v>
       </c>
@@ -4936,7 +4936,9 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1">
-      <c r="A19" s="159"/>
+      <c r="A19" s="159" t="s">
+        <v>83</v>
+      </c>
       <c r="B19" s="167"/>
       <c r="C19" s="160"/>
       <c r="D19" s="168"/>
@@ -4945,10 +4947,16 @@
       <c r="G19" s="168"/>
       <c r="H19" s="168"/>
       <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
+      <c r="J19" s="168">
+        <v>20</v>
+      </c>
+      <c r="K19" s="168">
+        <v>80</v>
+      </c>
       <c r="L19" s="168"/>
-      <c r="M19" s="168"/>
+      <c r="M19" s="168">
+        <v>1000</v>
+      </c>
       <c r="N19" s="202"/>
       <c r="O19" s="168"/>
       <c r="P19" s="170"/>
@@ -4956,7 +4964,7 @@
       <c r="R19" s="170"/>
       <c r="S19" s="164">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="T19" s="165"/>
       <c r="U19" s="4"/>
@@ -5452,11 +5460,11 @@
       </c>
       <c r="J37" s="186">
         <f t="shared" si="1"/>
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="K37" s="186">
         <f t="shared" si="1"/>
-        <v>1520</v>
+        <v>1600</v>
       </c>
       <c r="L37" s="186">
         <f t="shared" si="1"/>
@@ -5464,7 +5472,7 @@
       </c>
       <c r="M37" s="186">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N37" s="204">
         <f t="shared" si="1"/>
@@ -5488,7 +5496,7 @@
       </c>
       <c r="S37" s="188">
         <f>SUM(S6:S36)</f>
-        <v>9655</v>
+        <v>10755</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7493,11 +7501,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7514,6 +7517,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17753,7 +17761,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="43">
-        <v>2854510</v>
+        <v>3060190</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="34"/>
@@ -17785,14 +17793,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="42">
-        <v>145320</v>
+        <v>140090</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="43">
-        <v>2479341</v>
+        <v>1103741</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="34"/>
@@ -17827,7 +17835,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="43">
-        <v>706184</v>
+        <v>494174</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="34"/>
@@ -17890,7 +17898,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="42">
-        <v>9655</v>
+        <v>10755</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -17932,7 +17940,7 @@
         <v>59</v>
       </c>
       <c r="E10" s="43">
-        <v>0</v>
+        <v>1375600</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="34"/>
@@ -17965,7 +17973,7 @@
       </c>
       <c r="B11" s="225">
         <f>B6-B8-B9-B10</f>
-        <v>135665</v>
+        <v>129335</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -18080,7 +18088,7 @@
       </c>
       <c r="B14" s="42">
         <f>B5+B6-B9-B10-B12</f>
-        <v>6060665</v>
+        <v>6054335</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
@@ -18088,7 +18096,7 @@
       </c>
       <c r="E14" s="43">
         <f>E5+E6+E7+E10+E12</f>
-        <v>6060665</v>
+        <v>6054335</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="199">
